--- a/data/trans_dic/CoTrAQ_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6814731693359748</v>
+        <v>0.6704905453167542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3600656745652115</v>
+        <v>0.3548166480647643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5959902832624582</v>
+        <v>0.5840551722961905</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.257731632193793</v>
+        <v>0.2608053679802574</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6599659231431173</v>
+        <v>0.6633605638338292</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3478966467091291</v>
+        <v>0.3530832374466216</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.804640285688904</v>
+        <v>0.8084796398120281</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5289820173386878</v>
+        <v>0.5211509769824816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7614247379096829</v>
+        <v>0.7604104900434692</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4833594445159871</v>
+        <v>0.4790364270656969</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7670507481931212</v>
+        <v>0.7658366050494196</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4843164742119756</v>
+        <v>0.4900020332651974</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6358982171483788</v>
+        <v>0.6352351716868794</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4789953291125736</v>
+        <v>0.4761974615202825</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5652003078497535</v>
+        <v>0.5660925918100229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4347381096754421</v>
+        <v>0.4326044826450945</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6181486588926325</v>
+        <v>0.6177883978395472</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4704650168959709</v>
+        <v>0.4710565353378575</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7005519415320879</v>
+        <v>0.7007267687780483</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5466126957914266</v>
+        <v>0.545905636092157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.650078608876216</v>
+        <v>0.6485114088365982</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5128923607604383</v>
+        <v>0.5168054234393964</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6704170587806857</v>
+        <v>0.6692615935793123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5227612485760257</v>
+        <v>0.5207209606453478</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7532895220942982</v>
+        <v>0.7580070604250831</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6011094762987549</v>
+        <v>0.6105874883686461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.688697026553084</v>
+        <v>0.6875812138914602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5210419848805096</v>
+        <v>0.5202224190766653</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7444070443033691</v>
+        <v>0.7406255027232583</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5875961940939235</v>
+        <v>0.5845603784640935</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8519747329451035</v>
+        <v>0.8579168357862406</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7145894244554781</v>
+        <v>0.7193557441701753</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8091821497669301</v>
+        <v>0.8108442264665973</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6361660529069483</v>
+        <v>0.6328469600411164</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8219226967681418</v>
+        <v>0.8182714733860473</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6640570834798738</v>
+        <v>0.6629757930745757</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6827692985815363</v>
+        <v>0.6855778135897946</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5157840716158517</v>
+        <v>0.5169830607431372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6176340322029104</v>
+        <v>0.623867318387284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4678463304957228</v>
+        <v>0.4682448494441072</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6690067252433689</v>
+        <v>0.6660396324083178</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5034397715256274</v>
+        <v>0.5052920605975643</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7353005008193122</v>
+        <v>0.7361684205800594</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5716890399738911</v>
+        <v>0.5713865693336518</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6847699168816941</v>
+        <v>0.6865399298772948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5293947976762352</v>
+        <v>0.5315588186497582</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7093611538131139</v>
+        <v>0.708208556846294</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5439069439911515</v>
+        <v>0.5472983355635723</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>120234</v>
+        <v>118296</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50877</v>
+        <v>50135</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>76238</v>
+        <v>74711</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17816</v>
+        <v>18029</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>200861</v>
+        <v>201894</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>73207</v>
+        <v>74298</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>141964</v>
+        <v>142642</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>74745</v>
+        <v>73638</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>97400</v>
+        <v>97270</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33414</v>
+        <v>33115</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>233452</v>
+        <v>233082</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>101913</v>
+        <v>103110</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>563555</v>
+        <v>562968</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>442209</v>
+        <v>439626</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>309129</v>
+        <v>309617</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>282816</v>
+        <v>281428</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>885913</v>
+        <v>885397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>740392</v>
+        <v>741323</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>620854</v>
+        <v>621009</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>504633</v>
+        <v>503981</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>355552</v>
+        <v>354695</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>333659</v>
+        <v>336204</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>960823</v>
+        <v>959167</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>822693</v>
+        <v>819482</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>233718</v>
+        <v>235182</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>209449</v>
+        <v>212752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>155592</v>
+        <v>155340</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>160717</v>
+        <v>160464</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>399140</v>
+        <v>397112</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>385987</v>
+        <v>383992</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>264336</v>
+        <v>266180</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>248990</v>
+        <v>250651</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>182812</v>
+        <v>183188</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>196227</v>
+        <v>195204</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>440703</v>
+        <v>438745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>436213</v>
+        <v>435503</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>937394</v>
+        <v>941250</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>728771</v>
+        <v>730465</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>556351</v>
+        <v>561965</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>481005</v>
+        <v>481414</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1521125</v>
+        <v>1514379</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1228928</v>
+        <v>1233450</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1009516</v>
+        <v>1010708</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>807761</v>
+        <v>807334</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>616825</v>
+        <v>618419</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>544284</v>
+        <v>546509</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1612879</v>
+        <v>1610259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1327711</v>
+        <v>1335990</v>
       </c>
     </row>
     <row r="20">
